--- a/remote-results/results/marsden_600/marsden-600-results.xlsx
+++ b/remote-results/results/marsden_600/marsden-600-results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D967F-38CA-44E9-95DD-A84F4D1E668E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA44DD-D107-4AA8-9684-EAF3EF7E386F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7008" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'split-2-counts'!$A$1:$D$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -280,306 +281,108 @@
               <c:f>'split-0-counts'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>303.39469075746399</c:v>
+                  <c:v>107.05897508386001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.69978246316299</c:v>
+                  <c:v>180.45085050240701</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>190.88735405926701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.68351059892001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.54173718627001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.029032513087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.65852506849302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334.97593395964498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.90502458556398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356.700715553046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387.45365640678398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387.60026932566097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.074725857499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>397.137468908404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398.78254628061302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398.89515375600399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465.00023838588299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475.670863229156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>489.431644206589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>490.70303812384202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500.13218554152701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>513.95500905587403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>528.02162620970103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>566.840147253027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>570.04520727967395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>574.05063287410303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>575.13144888455304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>591.36533537970797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>611.62943720487897</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>706.77844767674003</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>455.53379858351201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>516.76177377381703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>641.36822524146498</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>344.99983091638501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>343.15571224748498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>548.15942078442004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287.099597866198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>398.89515375600399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.09404569580897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>407.15482424474902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>503.90629106595401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>799.21584503754195</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>239.44385949908701</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>640.07265775348299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528.02162620970103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>541.72174261995497</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>252.029032513087</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.01911692695001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64.9938304970171</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>175.44210578778299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>555.98488107961703</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>884.51612003576895</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>252.22053287485099</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>232.692232995117</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>708.46311594395195</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>875.82757911530996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>280.98424080652001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>309.34848649460599</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>575.13144888455304</c:v>
+                  <c:v>725.71153872996604</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>397.137468908404</c:v>
+                  <c:v>729.06504020513</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>107.05897508386001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>741.69503621197305</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>729.06504020513</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>390.074725857499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>428.06734290891802</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>475.670863229156</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>387.45365640678398</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>421.102962817123</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>117.50411652410401</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>340.23337694411299</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>551.80590542832704</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>334.97593395964498</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>599.13629355821797</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>500.13218554152701</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>418.02255019360501</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>389.97728108848099</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>236.43920116307001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>228.356017301132</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>490.70303812384202</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>611.62943720487897</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>465.00023838588299</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>527.22656275512099</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>387.60026932566097</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>304.46755430909201</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>689.96200407773904</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>222.22465264146399</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>243.66299073117199</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>530.31804995688003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>489.431644206589</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>156.92769359155201</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.982036589941</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>570.04520727967395</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>352.68069623503197</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>180.45085050240701</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>556.20479413573605</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>880.96435183757399</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>438.60881038231798</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>127.258288557943</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>293.17646722199498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>591.36533537970797</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>407.053469928769</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>553.056899352953</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>623.16522866849596</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>598.53441833202805</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>333.65852506849302</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>253.11398002428501</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>356.700715553046</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>513.95500905587403</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>355.90502458556398</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>400.83885470668599</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>725.71153872996604</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>330.87554036961302</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>749.14869241313602</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>789.60025976105499</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>747.23165998424804</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>584.98282987067603</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>340.79518032527801</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>534.65650172941696</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>229.68351059892001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>398.78254628061302</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>574.05063287410303</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>190.88735405926701</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>478.45008685270898</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>566.840147253027</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>483.14519470754101</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>241.54173718627001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,306 +392,108 @@
               <c:f>'split-0-counts'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>345.43634033203102</c:v>
+                  <c:v>149.83776855468699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>302.26751708984301</c:v>
+                  <c:v>257.94247436523398</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>243.95663452148401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.10980224609301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329.96466064453102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.26419067382801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330.42349243164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>370.11749267578102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405.22097778320301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>467.58969116210898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364.41943359375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>436.56134033203102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>302.568267822265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>393.52102661132801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>464.32110595703102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>464.71859741210898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>523.27239990234295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>480.94778442382801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>532.66650390625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>496.84454345703102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>527.278564453125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>436.44512939453102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>508.0419921875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>528.72814941406205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>503.55389404296801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>615.258544921875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>491.67822265625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>516.855712890625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>674.71875</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>626.9521484375</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>488.181884765625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>551.17620849609295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>675.49304199218705</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>333.14880371093699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>352.07830810546801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>580.9833984375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>309.87805175781199</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>464.71859741210898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>434.72052001953102</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>416.703369140625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>528.514892578125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>797.20837402343705</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>267.21472167968699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>624.16076660156205</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>508.0419921875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>574.63641357421795</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>251.26419067382801</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>500.92645263671801</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>79.789794921875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>208.09672546386699</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>575.78466796875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>870.83587646484295</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>273.37249755859301</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>249.91458129882801</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>616.407470703125</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>900.637939453125</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>306.598388671875</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>318.08056640625</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>491.67822265625</c:v>
+                  <c:v>727.85363769531205</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.52102661132801</c:v>
+                  <c:v>641.546630859375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>149.83776855468699</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>773.442626953125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>641.546630859375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>302.568267822265</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>440.52825927734301</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>480.94778442382801</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>364.41943359375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>453.541259765625</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143.17681884765599</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>378.19696044921801</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>579.103759765625</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>370.11749267578102</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>640.45819091796795</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>527.278564453125</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>455.24087524414</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>410.88903808593699</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>247.28584289550699</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>246.29702758789</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>496.84454345703102</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>674.71875</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>520.550048828125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>523.27239990234295</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>544.457275390625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>436.56134033203102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>297.817138671875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>721.79772949218705</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>256.35986328125</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>262.933349609375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>565.57043457031205</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>532.66650390625</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>173.80477905273401</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>190.93228149414</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>503.55389404296801</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>381.13165283203102</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>257.94247436523398</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>571.67034912109295</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>714.73748779296795</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>474.50515747070301</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>153.44073486328099</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>331.66705322265602</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>516.855712890625</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>401.47613525390602</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>576.31286621093705</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>668.125732421875</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>621.182373046875</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>330.42349243164</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>280.5615234375</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>467.58969116210898</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>436.44512939453102</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>405.22097778320301</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>428.53454589843699</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>727.85363769531205</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>356.08660888671801</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>780.921875</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>833.925537109375</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>767.230224609375</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>605.224853515625</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>365.97808837890602</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>556.52111816406205</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>161.10980224609301</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>464.32110595703102</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>615.258544921875</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>243.95663452148401</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>509.77844238281199</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>528.72814941406205</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>511.68255615234301</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>329.96466064453102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,306 +542,108 @@
               <c:f>'split-0-counts'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>303.39469075746399</c:v>
+                  <c:v>107.05897508386001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.69978246316299</c:v>
+                  <c:v>180.45085050240701</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>190.88735405926701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.68351059892001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.54173718627001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.029032513087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.65852506849302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334.97593395964498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.90502458556398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356.700715553046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387.45365640678398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387.60026932566097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.074725857499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>397.137468908404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398.78254628061302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398.89515375600399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465.00023838588299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475.670863229156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>489.431644206589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>490.70303812384202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500.13218554152701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>513.95500905587403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>528.02162620970103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>566.840147253027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>570.04520727967395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>574.05063287410303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>575.13144888455304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>591.36533537970797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>611.62943720487897</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>706.77844767674003</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>455.53379858351201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>516.76177377381703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>641.36822524146498</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>344.99983091638501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>343.15571224748498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>548.15942078442004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287.099597866198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>398.89515375600399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.09404569580897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>407.15482424474902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>503.90629106595401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>799.21584503754195</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>239.44385949908701</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>640.07265775348299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528.02162620970103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>541.72174261995497</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>252.029032513087</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.01911692695001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64.9938304970171</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>175.44210578778299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>555.98488107961703</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>884.51612003576895</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>252.22053287485099</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>232.692232995117</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>708.46311594395195</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>875.82757911530996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>280.98424080652001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>309.34848649460599</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>575.13144888455304</c:v>
+                  <c:v>725.71153872996604</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>397.137468908404</c:v>
+                  <c:v>729.06504020513</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>107.05897508386001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>741.69503621197305</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>729.06504020513</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>390.074725857499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>428.06734290891802</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>475.670863229156</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>387.45365640678398</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>421.102962817123</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>117.50411652410401</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>340.23337694411299</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>551.80590542832704</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>334.97593395964498</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>599.13629355821797</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>500.13218554152701</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>418.02255019360501</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>389.97728108848099</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>236.43920116307001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>228.356017301132</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>490.70303812384202</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>611.62943720487897</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>465.00023838588299</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>527.22656275512099</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>387.60026932566097</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>304.46755430909201</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>689.96200407773904</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>222.22465264146399</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>243.66299073117199</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>530.31804995688003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>489.431644206589</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>156.92769359155201</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.982036589941</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>570.04520727967395</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>352.68069623503197</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>180.45085050240701</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>556.20479413573605</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>880.96435183757399</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>438.60881038231798</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>127.258288557943</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>293.17646722199498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>591.36533537970797</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>407.053469928769</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>553.056899352953</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>623.16522866849596</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>598.53441833202805</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>333.65852506849302</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>253.11398002428501</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>356.700715553046</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>513.95500905587403</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>355.90502458556398</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>400.83885470668599</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>725.71153872996604</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>330.87554036961302</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>749.14869241313602</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>789.60025976105499</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>747.23165998424804</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>584.98282987067603</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>340.79518032527801</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>534.65650172941696</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>229.68351059892001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>398.78254628061302</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>574.05063287410303</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>190.88735405926701</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>478.45008685270898</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>566.840147253027</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>483.14519470754101</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>241.54173718627001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,306 +653,108 @@
               <c:f>'split-0-counts'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>303.39469075746399</c:v>
+                  <c:v>107.05897508386001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.69978246316299</c:v>
+                  <c:v>180.45085050240701</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>190.88735405926701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.68351059892001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.54173718627001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.029032513087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.65852506849302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334.97593395964498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.90502458556398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356.700715553046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387.45365640678398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387.60026932566097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.074725857499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>397.137468908404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398.78254628061302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398.89515375600399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465.00023838588299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475.670863229156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>489.431644206589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>490.70303812384202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500.13218554152701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>513.95500905587403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>528.02162620970103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>566.840147253027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>570.04520727967395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>574.05063287410303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>575.13144888455304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>591.36533537970797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>611.62943720487897</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>706.77844767674003</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>455.53379858351201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>516.76177377381703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>641.36822524146498</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>344.99983091638501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>343.15571224748498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>548.15942078442004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287.099597866198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>398.89515375600399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.09404569580897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>407.15482424474902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>503.90629106595401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>799.21584503754195</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>239.44385949908701</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>640.07265775348299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528.02162620970103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>541.72174261995497</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>252.029032513087</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.01911692695001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64.9938304970171</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>175.44210578778299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>555.98488107961703</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>884.51612003576895</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>252.22053287485099</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>232.692232995117</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>708.46311594395195</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>875.82757911530996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>280.98424080652001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>309.34848649460599</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>575.13144888455304</c:v>
+                  <c:v>725.71153872996604</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>397.137468908404</c:v>
+                  <c:v>729.06504020513</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>107.05897508386001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>741.69503621197305</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>729.06504020513</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>390.074725857499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>428.06734290891802</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>475.670863229156</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>387.45365640678398</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>421.102962817123</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>117.50411652410401</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>340.23337694411299</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>551.80590542832704</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>334.97593395964498</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>599.13629355821797</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>500.13218554152701</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>418.02255019360501</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>389.97728108848099</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>236.43920116307001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>228.356017301132</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>490.70303812384202</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>611.62943720487897</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>465.00023838588299</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>527.22656275512099</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>387.60026932566097</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>304.46755430909201</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>689.96200407773904</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>222.22465264146399</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>243.66299073117199</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>530.31804995688003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>489.431644206589</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>156.92769359155201</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.982036589941</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>570.04520727967395</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>352.68069623503197</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>180.45085050240701</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>556.20479413573605</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>880.96435183757399</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>438.60881038231798</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>127.258288557943</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>293.17646722199498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>591.36533537970797</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>407.053469928769</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>553.056899352953</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>623.16522866849596</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>598.53441833202805</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>333.65852506849302</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>253.11398002428501</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>356.700715553046</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>513.95500905587403</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>355.90502458556398</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>400.83885470668599</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>725.71153872996604</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>330.87554036961302</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>749.14869241313602</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>789.60025976105499</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>747.23165998424804</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>584.98282987067603</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>340.79518032527801</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>534.65650172941696</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>229.68351059892001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>398.78254628061302</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>574.05063287410303</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>190.88735405926701</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>478.45008685270898</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>566.840147253027</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>483.14519470754101</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>241.54173718627001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,306 +1227,108 @@
               <c:f>'split-0-counts'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>345.43634033203102</c:v>
+                  <c:v>149.83776855468699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>302.26751708984301</c:v>
+                  <c:v>257.94247436523398</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>243.95663452148401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.10980224609301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329.96466064453102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.26419067382801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330.42349243164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>370.11749267578102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405.22097778320301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>467.58969116210898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364.41943359375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>436.56134033203102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>302.568267822265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>393.52102661132801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>464.32110595703102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>464.71859741210898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>523.27239990234295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>480.94778442382801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>532.66650390625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>496.84454345703102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>527.278564453125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>436.44512939453102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>508.0419921875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>528.72814941406205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>503.55389404296801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>615.258544921875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>491.67822265625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>516.855712890625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>674.71875</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>626.9521484375</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>488.181884765625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>551.17620849609295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>675.49304199218705</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>333.14880371093699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>352.07830810546801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>580.9833984375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>309.87805175781199</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>464.71859741210898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>434.72052001953102</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>416.703369140625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>528.514892578125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>797.20837402343705</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>267.21472167968699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>624.16076660156205</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>508.0419921875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>574.63641357421795</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>251.26419067382801</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>500.92645263671801</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>79.789794921875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>208.09672546386699</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>575.78466796875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>870.83587646484295</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>273.37249755859301</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>249.91458129882801</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>616.407470703125</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>900.637939453125</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>306.598388671875</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>318.08056640625</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>491.67822265625</c:v>
+                  <c:v>727.85363769531205</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.52102661132801</c:v>
+                  <c:v>641.546630859375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>149.83776855468699</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>773.442626953125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>641.546630859375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>302.568267822265</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>440.52825927734301</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>480.94778442382801</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>364.41943359375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>453.541259765625</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143.17681884765599</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>378.19696044921801</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>579.103759765625</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>370.11749267578102</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>640.45819091796795</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>527.278564453125</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>455.24087524414</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>410.88903808593699</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>247.28584289550699</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>246.29702758789</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>496.84454345703102</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>674.71875</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>520.550048828125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>523.27239990234295</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>544.457275390625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>436.56134033203102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>297.817138671875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>721.79772949218705</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>256.35986328125</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>262.933349609375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>565.57043457031205</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>532.66650390625</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>173.80477905273401</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>190.93228149414</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>503.55389404296801</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>381.13165283203102</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>257.94247436523398</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>571.67034912109295</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>714.73748779296795</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>474.50515747070301</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>153.44073486328099</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>331.66705322265602</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>516.855712890625</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>401.47613525390602</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>576.31286621093705</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>668.125732421875</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>621.182373046875</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>330.42349243164</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>280.5615234375</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>467.58969116210898</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>436.44512939453102</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>405.22097778320301</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>428.53454589843699</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>727.85363769531205</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>356.08660888671801</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>780.921875</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>833.925537109375</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>767.230224609375</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>605.224853515625</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>365.97808837890602</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>556.52111816406205</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>161.10980224609301</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>464.32110595703102</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>615.258544921875</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>243.95663452148401</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>509.77844238281199</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>528.72814941406205</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>511.68255615234301</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>329.96466064453102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,306 +1363,108 @@
               <c:f>'split-0-counts'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>303.39469075746399</c:v>
+                  <c:v>107.05897508386001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.69978246316299</c:v>
+                  <c:v>180.45085050240701</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>190.88735405926701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.68351059892001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.54173718627001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.029032513087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.65852506849302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334.97593395964498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.90502458556398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356.700715553046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387.45365640678398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387.60026932566097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.074725857499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>397.137468908404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398.78254628061302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398.89515375600399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465.00023838588299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475.670863229156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>489.431644206589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>490.70303812384202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500.13218554152701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>513.95500905587403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>528.02162620970103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>566.840147253027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>570.04520727967395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>574.05063287410303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>575.13144888455304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>591.36533537970797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>611.62943720487897</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>706.77844767674003</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>455.53379858351201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>516.76177377381703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>641.36822524146498</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>344.99983091638501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>343.15571224748498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>548.15942078442004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287.099597866198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>398.89515375600399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.09404569580897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>407.15482424474902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>503.90629106595401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>799.21584503754195</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>239.44385949908701</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>640.07265775348299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528.02162620970103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>541.72174261995497</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>252.029032513087</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.01911692695001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64.9938304970171</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>175.44210578778299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>555.98488107961703</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>884.51612003576895</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>252.22053287485099</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>232.692232995117</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>708.46311594395195</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>875.82757911530996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>280.98424080652001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>309.34848649460599</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>575.13144888455304</c:v>
+                  <c:v>725.71153872996604</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>397.137468908404</c:v>
+                  <c:v>729.06504020513</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>107.05897508386001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>741.69503621197305</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>729.06504020513</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>390.074725857499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>428.06734290891802</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>475.670863229156</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>387.45365640678398</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>421.102962817123</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>117.50411652410401</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>340.23337694411299</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>551.80590542832704</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>334.97593395964498</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>599.13629355821797</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>500.13218554152701</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>418.02255019360501</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>389.97728108848099</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>236.43920116307001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>228.356017301132</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>490.70303812384202</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>611.62943720487897</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>465.00023838588299</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>527.22656275512099</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>387.60026932566097</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>304.46755430909201</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>689.96200407773904</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>222.22465264146399</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>243.66299073117199</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>530.31804995688003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>489.431644206589</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>156.92769359155201</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>161.982036589941</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>570.04520727967395</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>352.68069623503197</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>180.45085050240701</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>556.20479413573605</c:v>
-                </c:pt>
-                <c:pt idx="69">
                   <c:v>880.96435183757399</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>438.60881038231798</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>127.258288557943</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>293.17646722199498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>591.36533537970797</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>407.053469928769</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>553.056899352953</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>623.16522866849596</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>598.53441833202805</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>333.65852506849302</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>253.11398002428501</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>356.700715553046</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>513.95500905587403</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>355.90502458556398</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>400.83885470668599</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>725.71153872996604</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>330.87554036961302</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>749.14869241313602</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>789.60025976105499</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>747.23165998424804</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>584.98282987067603</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>340.79518032527801</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>534.65650172941696</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>229.68351059892001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>398.78254628061302</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>574.05063287410303</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>190.88735405926701</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>478.45008685270898</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>566.840147253027</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>483.14519470754101</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>241.54173718627001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7621,8 +6434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA873F37-3086-4353-BE9B-F74749E64FBF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7650,11 +6463,11 @@
       </c>
       <c r="B2">
         <f>AVERAGEIF('split-0-counts'!D:D,"False",'split-0-counts'!E:E)</f>
-        <v>54.598733261793946</v>
+        <v>54.598733261793939</v>
       </c>
       <c r="C2">
         <f>SQRT(AVERAGEIF('split-0-counts'!D:D,"False",'split-0-counts'!F:F))</f>
-        <v>65.317620457124633</v>
+        <v>65.317620457124619</v>
       </c>
       <c r="D2">
         <f>AVERAGEIFS('split-0-counts'!G:G,'split-0-counts'!D:D,"False",'split-0-counts'!C:C,"&gt;"&amp;0)</f>
@@ -7743,10 +6556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7771,7 +6585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7797,7 +6611,7 @@
         <v>0.13857081503174834</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7825,31 +6639,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>626.9521484375</v>
+        <v>149.83776855468699</v>
       </c>
       <c r="C4">
-        <v>706.77844767674003</v>
+        <v>107.05897508386001</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>79.826299239240029</v>
+        <v>42.778793470826983</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>6372.2380502326932</v>
+        <v>1830.0251708196693</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.11294387866754854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.39958157116036341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7875,7 +6689,7 @@
         <v>7.166995354380426E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7901,7 +6715,7 @@
         <v>6.6596324397127107E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7927,7 +6741,7 @@
         <v>5.3206279026178152E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7953,7 +6767,7 @@
         <v>3.4350820329301153E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7979,7 +6793,7 @@
         <v>2.6001595018030829E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8005,7 +6819,7 @@
         <v>5.9880349417526416E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8033,31 +6847,31 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>464.71859741210898</v>
+        <v>257.94247436523398</v>
       </c>
       <c r="C12">
-        <v>398.89515375600399</v>
+        <v>180.45085050240701</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>65.823443656104985</v>
+        <v>77.49162386282697</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>4332.7257347484274</v>
+        <v>6004.951768897854</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>0.16501439798480941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.42943340885940195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8083,7 +6897,7 @@
         <v>1.2209948598105112E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8109,7 +6923,7 @@
         <v>2.3451877092671148E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8135,7 +6949,7 @@
         <v>4.8835670338852909E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8161,7 +6975,7 @@
         <v>2.511800818977269E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8187,7 +7001,7 @@
         <v>0.11598068223046608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8215,31 +7029,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B19">
-        <v>508.0419921875</v>
+        <v>243.95663452148401</v>
       </c>
       <c r="C19">
-        <v>528.02162620970103</v>
+        <v>190.88735405926701</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>19.979634022201026</v>
+        <v>53.069280462216994</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>399.18577566109275</v>
+        <v>2816.3485287774465</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.7838666127410124E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.27801359982044677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8267,31 +7081,31 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B21">
-        <v>251.26419067382801</v>
+        <v>161.10980224609301</v>
       </c>
       <c r="C21">
-        <v>252.029032513087</v>
+        <v>229.68351059892001</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.76484183925899174</v>
+        <v>68.573708352826998</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.58498303908107741</v>
+        <v>4702.3534772585754</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>3.0347370365724677E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.29855738522114628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8317,7 +7131,7 @@
         <v>2.6448422330349126E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8343,7 +7157,7 @@
         <v>0.22765182959230204</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8369,7 +7183,7 @@
         <v>0.18612760904490874</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8395,7 +7209,7 @@
         <v>3.5612095873336608E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8421,7 +7235,7 @@
         <v>1.5466358680238388E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8447,7 +7261,7 @@
         <v>8.3862976747564766E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8475,31 +7289,31 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B29">
-        <v>616.407470703125</v>
+        <v>329.96466064453102</v>
       </c>
       <c r="C29">
-        <v>708.46311594395195</v>
+        <v>241.54173718627001</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>92.055645240826948</v>
+        <v>88.42292345826101</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>8474.241820704985</v>
+        <v>7818.6133929054849</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>0.12993710352609192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.36607720259158277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8525,7 +7339,7 @@
         <v>2.8327904863279661E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8551,7 +7365,7 @@
         <v>9.1158663531569276E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8579,83 +7393,83 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>491.67822265625</v>
+        <v>251.26419067382801</v>
       </c>
       <c r="C33">
-        <v>575.13144888455304</v>
+        <v>252.029032513087</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>83.453226228303038</v>
+        <v>0.76484183925899174</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>6964.4409679123264</v>
+        <v>0.58498303908107741</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>0.14510287411713896</v>
+        <v>3.0347370365724677E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B34">
-        <v>393.52102661132801</v>
+        <v>330.42349243164</v>
       </c>
       <c r="C34">
-        <v>397.137468908404</v>
+        <v>333.65852506849302</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>3.6164422970759915</v>
+        <v>3.2350326368530204</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>13.078654888080274</v>
+        <v>10.465436161504206</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>9.1062732182293528E-3</v>
+        <v>9.6956390854660065E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>149.83776855468699</v>
+        <v>370.11749267578102</v>
       </c>
       <c r="C35">
-        <v>107.05897508386001</v>
+        <v>334.97593395964498</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>42.778793470826983</v>
+        <v>35.141558716136046</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>1830.0251708196693</v>
+        <v>1234.9291489996374</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>0.39958157116036341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.10490771172943307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8683,57 +7497,57 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B37">
-        <v>641.546630859375</v>
+        <v>405.22097778320301</v>
       </c>
       <c r="C37">
-        <v>729.06504020513</v>
+        <v>355.90502458556398</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>87.518409345755003</v>
+        <v>49.315953197639033</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>7659.4719744111371</v>
+        <v>2432.0632397917234</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>0.12004197776529073</v>
+        <v>0.13856492544623478</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B38">
-        <v>302.568267822265</v>
+        <v>467.58969116210898</v>
       </c>
       <c r="C38">
-        <v>390.074725857499</v>
+        <v>356.700715553046</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>87.506458035234004</v>
+        <v>110.88897560906298</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>7657.3801978721694</v>
+        <v>12296.364911627365</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>0.22433255023859611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.31087399260507614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8761,57 +7575,57 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>480.94778442382801</v>
+        <v>364.41943359375</v>
       </c>
       <c r="C40">
-        <v>475.670863229156</v>
+        <v>387.45365640678398</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.2769211946720134</v>
+        <v>23.034222813033978</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>27.845897294778709</v>
+        <v>530.57542060049491</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>1.1093639746712507E-2</v>
+        <v>5.945026568248607E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B41">
-        <v>364.41943359375</v>
+        <v>436.56134033203102</v>
       </c>
       <c r="C41">
-        <v>387.45365640678398</v>
+        <v>387.60026932566097</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>23.034222813033978</v>
+        <v>48.961071006370048</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>530.57542060049491</v>
+        <v>2397.18647409081</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>5.945026568248607E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.12631846487504128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8837,7 +7651,7 @@
         <v>7.7031747132563722E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8863,7 +7677,7 @@
         <v>0.21848342920212213</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8889,7 +7703,7 @@
         <v>0.11158100902998988</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8917,31 +7731,31 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>370.11749267578102</v>
+        <v>302.568267822265</v>
       </c>
       <c r="C46">
-        <v>334.97593395964498</v>
+        <v>390.074725857499</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>35.141558716136046</v>
+        <v>87.506458035234004</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>1234.9291489996374</v>
+        <v>7657.3801978721694</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>0.10490771172943307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.22433255023859611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8969,31 +7783,31 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>527.278564453125</v>
+        <v>393.52102661132801</v>
       </c>
       <c r="C48">
-        <v>500.13218554152701</v>
+        <v>397.137468908404</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>27.146378911597992</v>
+        <v>3.6164422970759915</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>736.92588801205216</v>
+        <v>13.078654888080274</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>5.4278408181638559E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9.1062732182293528E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9019,7 +7833,7 @@
         <v>8.9034251939991052E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9045,7 +7859,7 @@
         <v>5.3623013471678055E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9071,7 +7885,7 @@
         <v>4.5874971997372581E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9099,57 +7913,57 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B53">
-        <v>496.84454345703102</v>
+        <v>464.32110595703102</v>
       </c>
       <c r="C53">
-        <v>490.70303812384202</v>
+        <v>398.78254628061302</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>6.1415053331890022</v>
+        <v>65.538559676418004</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>37.718087757588954</v>
+        <v>4295.3028044594039</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>1.2515727142571775E-2</v>
+        <v>0.1643466101705971</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>674.71875</v>
+        <v>464.71859741210898</v>
       </c>
       <c r="C54">
-        <v>611.62943720487897</v>
+        <v>398.89515375600399</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>63.089312795121032</v>
+        <v>65.823443656104985</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>3980.2613889606223</v>
+        <v>4332.7257347484274</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>0.10314956893415163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.16501439798480941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9201,7 +8015,7 @@
         <v>0.12531641213504602</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9229,31 +8043,31 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>436.56134033203102</v>
+        <v>480.94778442382801</v>
       </c>
       <c r="C58">
-        <v>387.60026932566097</v>
+        <v>475.670863229156</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>48.961071006370048</v>
+        <v>5.2769211946720134</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>2397.18647409081</v>
+        <v>27.845897294778709</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>0.12631846487504128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.1093639746712507E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9279,7 +8093,7 @@
         <v>2.1842772877091469E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9305,7 +8119,7 @@
         <v>4.6141273325626536E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9331,7 +8145,7 @@
         <v>0.15360676789923738</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9357,7 +8171,7 @@
         <v>7.908611324344933E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9409,7 +8223,7 @@
         <v>8.8336870350400915E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9435,7 +8249,7 @@
         <v>0.10754689038576774</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9463,31 +8277,31 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B67">
-        <v>503.55389404296801</v>
+        <v>496.84454345703102</v>
       </c>
       <c r="C67">
-        <v>570.04520727967395</v>
+        <v>490.70303812384202</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" si="3">ABS(B67-C67)</f>
-        <v>66.491313236705935</v>
+        <v>6.1415053331890022</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" si="4">E67*E67</f>
-        <v>4421.094735941746</v>
+        <v>37.718087757588954</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" si="5">E67/C67</f>
-        <v>0.11664217572148476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.2515727142571775E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9515,31 +8329,31 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B69">
-        <v>257.94247436523398</v>
+        <v>527.278564453125</v>
       </c>
       <c r="C69">
-        <v>180.45085050240701</v>
+        <v>500.13218554152701</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
-        <v>77.49162386282697</v>
+        <v>27.146378911597992</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>6004.951768897854</v>
+        <v>736.92588801205216</v>
       </c>
       <c r="G69">
         <f t="shared" si="5"/>
-        <v>0.42943340885940195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.4278408181638559E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9567,31 +8381,31 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>714.73748779296795</v>
+        <v>436.44512939453102</v>
       </c>
       <c r="C71">
-        <v>880.96435183757399</v>
+        <v>513.95500905587403</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>166.22686404460603</v>
+        <v>77.509879661343007</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>27631.370330103939</v>
+        <v>6007.7814451158747</v>
       </c>
       <c r="G71">
         <f t="shared" si="5"/>
-        <v>0.18868738978811003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.15081063185613705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9617,7 +8431,7 @@
         <v>8.1841372627913245E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9643,7 +8457,7 @@
         <v>0.20574256185613127</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9671,31 +8485,31 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>516.855712890625</v>
+        <v>508.0419921875</v>
       </c>
       <c r="C75">
-        <v>591.36533537970797</v>
+        <v>528.02162620970103</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75">
         <f t="shared" si="3"/>
-        <v>74.509622489082972</v>
+        <v>19.979634022201026</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
-        <v>5551.6838434656593</v>
+        <v>399.18577566109275</v>
       </c>
       <c r="G75">
         <f t="shared" si="5"/>
-        <v>0.12599592507606372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3.7838666127410124E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9721,7 +8535,7 @@
         <v>1.3701724925324846E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9747,7 +8561,7 @@
         <v>4.2049863016250744E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9773,7 +8587,7 @@
         <v>7.2148607921281499E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9801,31 +8615,31 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B80">
-        <v>330.42349243164</v>
+        <v>528.72814941406205</v>
       </c>
       <c r="C80">
-        <v>333.65852506849302</v>
+        <v>566.840147253027</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
       </c>
       <c r="E80">
         <f t="shared" si="3"/>
-        <v>3.2350326368530204</v>
+        <v>38.111997838964953</v>
       </c>
       <c r="F80">
         <f t="shared" si="4"/>
-        <v>10.465436161504206</v>
+        <v>1452.5243792772692</v>
       </c>
       <c r="G80">
         <f t="shared" si="5"/>
-        <v>9.6956390854660065E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.723588303273878E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9853,83 +8667,83 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B82">
-        <v>467.58969116210898</v>
+        <v>503.55389404296801</v>
       </c>
       <c r="C82">
-        <v>356.700715553046</v>
+        <v>570.04520727967395</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82">
         <f t="shared" si="3"/>
-        <v>110.88897560906298</v>
+        <v>66.491313236705935</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
-        <v>12296.364911627365</v>
+        <v>4421.094735941746</v>
       </c>
       <c r="G82">
         <f t="shared" si="5"/>
-        <v>0.31087399260507614</v>
+        <v>0.11664217572148476</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>436.44512939453102</v>
+        <v>615.258544921875</v>
       </c>
       <c r="C83">
-        <v>513.95500905587403</v>
+        <v>574.05063287410303</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
       </c>
       <c r="E83">
         <f t="shared" si="3"/>
-        <v>77.509879661343007</v>
+        <v>41.20791204777197</v>
       </c>
       <c r="F83">
         <f t="shared" si="4"/>
-        <v>6007.7814451158747</v>
+        <v>1698.0920153369102</v>
       </c>
       <c r="G83">
         <f t="shared" si="5"/>
-        <v>0.15081063185613705</v>
+        <v>7.1784455391079444E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B84">
-        <v>405.22097778320301</v>
+        <v>491.67822265625</v>
       </c>
       <c r="C84">
-        <v>355.90502458556398</v>
+        <v>575.13144888455304</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
       <c r="E84">
         <f t="shared" si="3"/>
-        <v>49.315953197639033</v>
+        <v>83.453226228303038</v>
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
-        <v>2432.0632397917234</v>
+        <v>6964.4409679123264</v>
       </c>
       <c r="G84">
         <f t="shared" si="5"/>
-        <v>0.13856492544623478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.14510287411713896</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9957,31 +8771,31 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B86">
-        <v>727.85363769531205</v>
+        <v>516.855712890625</v>
       </c>
       <c r="C86">
-        <v>725.71153872996604</v>
+        <v>591.36533537970797</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
-        <v>2.1420989653460083</v>
+        <v>74.509622489082972</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
-        <v>4.5885879773364389</v>
+        <v>5551.6838434656593</v>
       </c>
       <c r="G86">
         <f t="shared" si="5"/>
-        <v>2.9517223456234361E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.12599592507606372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10007,7 +8821,7 @@
         <v>7.6195020305648217E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10033,7 +8847,7 @@
         <v>4.2412384762385597E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10059,7 +8873,7 @@
         <v>5.6136351021127469E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10085,7 +8899,7 @@
         <v>2.6763540272836589E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10111,7 +8925,7 @@
         <v>3.4602765434028106E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -10137,7 +8951,7 @@
         <v>7.3894554581410851E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10165,109 +8979,109 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B94">
-        <v>161.10980224609301</v>
+        <v>674.71875</v>
       </c>
       <c r="C94">
-        <v>229.68351059892001</v>
+        <v>611.62943720487897</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
       </c>
       <c r="E94">
         <f t="shared" si="3"/>
-        <v>68.573708352826998</v>
+        <v>63.089312795121032</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
-        <v>4702.3534772585754</v>
+        <v>3980.2613889606223</v>
       </c>
       <c r="G94">
         <f t="shared" si="5"/>
-        <v>0.29855738522114628</v>
+        <v>0.10314956893415163</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>464.32110595703102</v>
+        <v>626.9521484375</v>
       </c>
       <c r="C95">
-        <v>398.78254628061302</v>
+        <v>706.77844767674003</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95">
         <f t="shared" si="3"/>
-        <v>65.538559676418004</v>
+        <v>79.826299239240029</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
-        <v>4295.3028044594039</v>
+        <v>6372.2380502326932</v>
       </c>
       <c r="G95">
         <f t="shared" si="5"/>
-        <v>0.1643466101705971</v>
+        <v>0.11294387866754854</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B96">
-        <v>615.258544921875</v>
+        <v>616.407470703125</v>
       </c>
       <c r="C96">
-        <v>574.05063287410303</v>
+        <v>708.46311594395195</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
       <c r="E96">
         <f t="shared" si="3"/>
-        <v>41.20791204777197</v>
+        <v>92.055645240826948</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
-        <v>1698.0920153369102</v>
+        <v>8474.241820704985</v>
       </c>
       <c r="G96">
         <f t="shared" si="5"/>
-        <v>7.1784455391079444E-2</v>
+        <v>0.12993710352609192</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B97">
-        <v>243.95663452148401</v>
+        <v>727.85363769531205</v>
       </c>
       <c r="C97">
-        <v>190.88735405926701</v>
+        <v>725.71153872996604</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97">
         <f t="shared" si="3"/>
-        <v>53.069280462216994</v>
+        <v>2.1420989653460083</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
-        <v>2816.3485287774465</v>
+        <v>4.5885879773364389</v>
       </c>
       <c r="G97">
         <f t="shared" si="5"/>
-        <v>0.27801359982044677</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.9517223456234361E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10295,31 +9109,31 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B99">
-        <v>528.72814941406205</v>
+        <v>641.546630859375</v>
       </c>
       <c r="C99">
-        <v>566.840147253027</v>
+        <v>729.06504020513</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
       </c>
       <c r="E99">
         <f t="shared" si="3"/>
-        <v>38.111997838964953</v>
+        <v>87.518409345755003</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
-        <v>1452.5243792772692</v>
+        <v>7659.4719744111371</v>
       </c>
       <c r="G99">
         <f t="shared" si="5"/>
-        <v>6.723588303273878E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.12004197776529073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10347,34 +9161,39 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B101">
-        <v>329.96466064453102</v>
+        <v>714.73748779296795</v>
       </c>
       <c r="C101">
-        <v>241.54173718627001</v>
+        <v>880.96435183757399</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
-        <v>88.42292345826101</v>
+        <v>166.22686404460603</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
-        <v>7818.6133929054849</v>
+        <v>27631.370330103939</v>
       </c>
       <c r="G101">
         <f t="shared" si="5"/>
-        <v>0.36607720259158277</v>
+        <v>0.18868738978811003</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D101" xr:uid="{091DA011-387F-43E2-B44A-8E5D8416D7C0}">
-    <sortState ref="A2:D101">
-      <sortCondition ref="A1:A101"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="False"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D101">
+      <sortCondition ref="C1:C101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12716,7 +11535,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{D87CAB7D-7E87-4C41-902D-69DBEC1B5926}">
-    <sortState ref="A2:G101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -17696,7 +16515,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{E3D5E7A3-63C6-43CA-9C77-09B051BC7A50}">
-    <sortState ref="A2:G101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -17708,7 +16527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43F930-C379-4792-8FD8-503A700A331E}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -20336,7 +19155,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D101" xr:uid="{866BFB19-9F6D-43B9-8EEB-90C1ED65F9AE}">
-    <sortState ref="A2:D101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D101">
       <sortCondition ref="A1:A101"/>
     </sortState>
   </autoFilter>
